--- a/biology/Botanique/Stolzia_repens/Stolzia_repens.xlsx
+++ b/biology/Botanique/Stolzia_repens/Stolzia_repens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stolzia repens (Rolfe) Summerhayes (1953) est une espèce africaine de plantes épiphytes de la famille des orchidacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petite herbe épiphyte appartenant à la famille des Orchidaceae. Elle se reconnait facilement à ses pseudobulbes légèrement épaissis atteignant 0,3 cm de diamètre, au sommet allongé ou s'insère deux petites feuilles sessiles à subsessiles presque circulaire à obovale. L'inflorescence uniforme naît entre les feuilles sur un pédoncule très court atteignant 0,5 cm de diamètre. Fleurs petites brunâtres à jaune translucide avec une nervation foncée "Szlachetko et Olszewski, 1998".
 </t>
@@ -542,10 +556,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Large distribution en Afrique tropicale : Cameroun, Ghana, Guinée équatoriale, Liberia, Burkina Faso, Rwanda, République démocratique du Congo, Éthiopie, Soudan, Kenya, Tanzanie, Ouganda, Malawi, Mozambique et au Zimbabwe.
-La variété Stolzia repens var. cleistogama Stévart, Droissart &amp; M.Simo est endémique du Cameroun. Elle est considérée comme menacée car on ne lui connaît que trois localisations : sur le mont Mbam Minkoum, dans le parc de la Méfou près de Yaoundé, et à Akom II, dans le Sud[2].
+La variété Stolzia repens var. cleistogama Stévart, Droissart &amp; M.Simo est endémique du Cameroun. Elle est considérée comme menacée car on ne lui connaît que trois localisations : sur le mont Mbam Minkoum, dans le parc de la Méfou près de Yaoundé, et à Akom II, dans le Sud.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Petite épiphyte des troncs et branches couverts de mousse en forêt.
 </t>
@@ -605,13 +623,15 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (9 octobre 2017)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (9 octobre 2017) :
 variété Stolzia repens var. cleistogama Stévart, Droissart &amp; M.Simo
 variété Stolzia repens var. obtusa
 variété Stolzia repens var. repens
-Selon Tropicos                                           (9 octobre 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Stolzia repens var. cleistogama Stévart, Droissart &amp; M. Simo
 variété Stolzia repens var. obtusa G.Will.
 variété Stolzia repens var. repens</t>
